--- a/medicine/Enfance/Pascal_Lemaître/Pascal_Lemaître.xlsx
+++ b/medicine/Enfance/Pascal_Lemaître/Pascal_Lemaître.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pascal_Lema%C3%AEtre</t>
+          <t>Pascal_Lemaître</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascal Lemaître, né le 6 février 1967 à Bruxelles (province de Brabant, actuellement région de Bruxelles-Capitale), est un dessinateur de bande dessinée, auteur, illustrateur belge de littérature jeunesse et enseignant, de langue française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pascal_Lema%C3%AEtre</t>
+          <t>Pascal_Lemaître</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascal Lemaître naît le 6 février 1967 à Bruxelles[1],[2],[3]. Il avoue qu'enfant, il était inondé de cartoons et qu'il était fan d’André Franquin[4]. Il se forme artistiquement à La Cambre dans l'atelier de communication graphique[5],[6].
-Depuis 1990, il travaille pour la presse adulte et enfantine en Belgique, en France et aux États-Unis dans The New Yorker, The New York Times et The Wall Street Journal. Il illustre quatre albums écrits par l'écrivaine Toni Morrison (prix Nobel de littérature) publiés dans la collection « Mini BD » aux éditions Casterman en 2004 et réédités en 2011 dans la collection « Mille bulles » aux éditions L’École des loisirs[7].
-À la fin des années 1980, il collabore au magazine Schtroumpf ! de Peyo[8]. Puis, il collabore épisodiquement à Spirou en illustrant des rubriques rédactionnelles ou de courts récits de bande dessinée avec David De Thuin de 1993 à 2008[9]. De 1994 à 1995, il fait deux apparitions dans Fluide glacial[10].
-Comme affichiste, il réalise les affiches du musée de la photographie à Charleroi en 1989 et celle du Festival du dessin animé et du film d'animation en 1995[2].
-Il illustre Sciences pas bêtes pour les 7 à 107 ans écrit par Bertrand Fichou et Marc Beynié et publié par Bayard jeunesse en 2015. Cet ouvrage lui vaut d'être récipiendaire du prix Le goût des sciences Catégorie 2 : « la science expliquée aux jeunes » délivré par le Ministère de l'Enseignement supérieur la même année[11].
-En 2015, le Musée Tomi-Ungerer à Strasbourg organise une exposition intitulée Tomi Ungerer invite Pascal Lemaître où il présente son travail d’illustrateur, exposition saluée par Bill Steig[12]. En 2016, il illustre l'enfance de Stéphane Hessel dans l'ouvrage Dessine-moi un homme publié aux Éditions de l'Aube[13]. L'année suivante (2020), il illustre Tout le monde a peur écrit par Rascal chez son éditeur historique.
-En 2020, il rend hommage aux libraires dans Vivons livres[14] !.
-Il expose ses œuvres au Palais des Beaux-Arts de Bruxelles dans le cadre de Jeunesse et Arts Plastiques, à la galerie Sans Titre ainsi qu'à la Maison de Marijke Schreurs[2]. Il collabore également à Khméropédies, I, II et III, chorégraphies de son épouse Emmanuèle Phuon[2].
-Il est lauréat d'une bourse d'aide à la création en 2008, 2012, 2017 et 2020 de la Fédération Wallonie-Bruxelles[2].
-Parallèlement, il est enseignant à La Cambre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascal Lemaître naît le 6 février 1967 à Bruxelles. Il avoue qu'enfant, il était inondé de cartoons et qu'il était fan d’André Franquin. Il se forme artistiquement à La Cambre dans l'atelier de communication graphique,.
+Depuis 1990, il travaille pour la presse adulte et enfantine en Belgique, en France et aux États-Unis dans The New Yorker, The New York Times et The Wall Street Journal. Il illustre quatre albums écrits par l'écrivaine Toni Morrison (prix Nobel de littérature) publiés dans la collection « Mini BD » aux éditions Casterman en 2004 et réédités en 2011 dans la collection « Mille bulles » aux éditions L’École des loisirs.
+À la fin des années 1980, il collabore au magazine Schtroumpf ! de Peyo. Puis, il collabore épisodiquement à Spirou en illustrant des rubriques rédactionnelles ou de courts récits de bande dessinée avec David De Thuin de 1993 à 2008. De 1994 à 1995, il fait deux apparitions dans Fluide glacial.
+Comme affichiste, il réalise les affiches du musée de la photographie à Charleroi en 1989 et celle du Festival du dessin animé et du film d'animation en 1995.
+Il illustre Sciences pas bêtes pour les 7 à 107 ans écrit par Bertrand Fichou et Marc Beynié et publié par Bayard jeunesse en 2015. Cet ouvrage lui vaut d'être récipiendaire du prix Le goût des sciences Catégorie 2 : « la science expliquée aux jeunes » délivré par le Ministère de l'Enseignement supérieur la même année.
+En 2015, le Musée Tomi-Ungerer à Strasbourg organise une exposition intitulée Tomi Ungerer invite Pascal Lemaître où il présente son travail d’illustrateur, exposition saluée par Bill Steig. En 2016, il illustre l'enfance de Stéphane Hessel dans l'ouvrage Dessine-moi un homme publié aux Éditions de l'Aube. L'année suivante (2020), il illustre Tout le monde a peur écrit par Rascal chez son éditeur historique.
+En 2020, il rend hommage aux libraires dans Vivons livres !.
+Il expose ses œuvres au Palais des Beaux-Arts de Bruxelles dans le cadre de Jeunesse et Arts Plastiques, à la galerie Sans Titre ainsi qu'à la Maison de Marijke Schreurs. Il collabore également à Khméropédies, I, II et III, chorégraphies de son épouse Emmanuèle Phuon.
+Il est lauréat d'une bourse d'aide à la création en 2008, 2012, 2017 et 2020 de la Fédération Wallonie-Bruxelles.
+Parallèlement, il est enseignant à La Cambre.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pascal_Lema%C3%AEtre</t>
+          <t>Pascal_Lemaître</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il demeure à Bruxelles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il demeure à Bruxelles.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pascal_Lema%C3%AEtre</t>
+          <t>Pascal_Lemaître</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,14 +600,60 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications
-Auteur-illustrateur
-Le Petit Cordonnier de Venise, L’École des loisirs, Pastel, 2007  (ISBN 9782211087988)
-Vleck[4], L’École des loisirs, Pastel, 2012
-Milady Coccinelle[15], L’École des loisirs, Pastel, 2016
-La Fleur des marais, L’École des loisirs, Pastel, 2017.
-Illustrateur
-Éléphant Puce, textes de Pierre Coran, ill. de Pascal Lemaître, Artis, 2000.
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Auteur-illustrateur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Petit Cordonnier de Venise, L’École des loisirs, Pastel, 2007  (ISBN 9782211087988)
+Vleck, L’École des loisirs, Pastel, 2012
+Milady Coccinelle, L’École des loisirs, Pastel, 2016
+La Fleur des marais, L’École des loisirs, Pastel, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Éléphant Puce, textes de Pierre Coran, ill. de Pascal Lemaître, Artis, 2000.
 Les Légumes, textes de François Hanozet, illustré par Pascal Lemaître, L’École des loisirs, Pastel, 2004  (ISBN 9782211074469)
 L'Eau verte, L'École des loisirs, coll. « Neuf poche » 2005
 Le Loup dans la bergerie, textes de Rascal, L'École des loisirs, Pastel, 2006
@@ -604,7 +666,7 @@
 Les Pensées de Rascal, textes de Rascal, illustré par Pascal Lemaître, L'Édune, coll. « Papillotes », 2009
 Pour m'endormir, j'éteins mes yeux, L'École des loisirs, Pastel, 2009
 Le Kit de l'école du rire, textes de Stéphane Rose, illustré par Pascal Lemaître, Milan Jeunesse, 2009  (ISBN 9782745939050)
-Voyage en autopuce[16], textes de Maureen Dor, illustré par Pascal Lemaître, Éditions Clochette, coll. « Zygomots », 2011  (ISBN 9782354501624)
+Voyage en autopuce, textes de Maureen Dor, illustré par Pascal Lemaître, Éditions Clochette, coll. « Zygomots », 2011  (ISBN 9782354501624)
 Œufs bleus et compagnie, L'École des loisirs, coll. « Neuf », 2011
 Tout le monde fait caca !, textes de Rascal, L'École des loisirs, Pastel, 2011  (ISBN 9782211204293)
 Pas tout à fait vampire, L'École des loisirs, Pastel, 2012
@@ -614,79 +676,270 @@
 Bonne ou mauvaise idée, L'École des loisirs, Pastel, 2014
 Ma meilleure amie a une meilleure amie, L'École des loisirs, coll. « Mouche », 2014
 Sciences pas bêtes pour les 7 à 107 ans, textes de Bertrand Fichou et Marc Beynie, illustré par Pascal Lemaître, Bayard jeunesse, 2015  (ISBN 9782747052283),prix Le goût des sciences 2015.
-Quel œuf[17] !, L'École des loisirs, Pastel, 2015
+Quel œuf !, L'École des loisirs, Pastel, 2015
 Musique pas bête adaptation de l'émission de radio Klassiko Dingo de Nicolas Lafitte, avec Bertrand Fichou, illustré par Pascal Lemaître, Bayard jeunesse et Radio France éditions, 2016.
-Dessine-moi un homme[13], textes de Stéphane Hessel, illustré par Pascal Lemaître, Éditions de l'Aube, 2016, 140 p.  (ISBN 9782815920650)
+Dessine-moi un homme, textes de Stéphane Hessel, illustré par Pascal Lemaître, Éditions de l'Aube, 2016, 140 p.  (ISBN 9782815920650)
 La Joie de créer, textes de Michel Troisgros avec Denis Lafay, illustré par Pascal Lemaître, L'Aube, 2017, 192 p.
-Chantons pas bête, textes de Nicolas Lafitte, illustré par Pascal Lemaître, Bayard jeunesse, 2018 [18].
+Chantons pas bête, textes de Nicolas Lafitte, illustré par Pascal Lemaître, Bayard jeunesse, 2018 .
 Dick le lambin, Dick l'éclair, L'École des loisirs, Pastel, 2018
 Les Grandes Questions philo pour les 7 à 107 ans, textes d'Anne-Sophie Chilard et Jean-Charles Pettier, illustré par Pascal Lemaître, Bayard jeunesse, 2019  (ISBN 9791036305535)
 Tout le monde a peur (et c'est bien normal !), textes de Rascal, L'École des loisirs, Pastel, 2020  (ISBN 9782211301763)
 Parmi des millions, textes de Hubert Reeves, illustré par Pascal Lemaître, L'Aube, 2020  (ISBN 978-2-8159-4051-1)
 Tetti, la sauterelle de Vincent, L'École des loisirs, Pastel, 2021
-Le Roi a froid[6], textes de Alice Brière-Haquet, Glénat Jeunesse, coll. « 3 p'tits tours et puis lisons ! », 2021  (ISBN 9782344046128)
-Le Numérique pas bête[6], textes de Romain Gallissot, Bayard Jeunesse, coll. « Questions pas bêtes », 2021  (ISBN 9791036317163)
-L'Histoire pas bête[6], textes de Jean-Michel Billioud, Bayard Jeunesse, coll. « Questions pas bêtes », 2022  (ISBN 9791036329081)
-L'Irrésistible Perlimpinpin, textes de Andréa Nève[19],[6], L'École des loisirs, Pastel, 2023  (ISBN 9782211318624)
-Paupières de sel[20], textes de Muriel Logist, illustré par Pascal Lemaître, La pierre d’alun, coll. « La petite pierre » », 2023, 64 p.,  (ISBN 9782874291265),préface de Claude Louis-Combet.
-Bande dessinée
-À ton avis...
+Le Roi a froid, textes de Alice Brière-Haquet, Glénat Jeunesse, coll. « 3 p'tits tours et puis lisons ! », 2021  (ISBN 9782344046128)
+Le Numérique pas bête, textes de Romain Gallissot, Bayard Jeunesse, coll. « Questions pas bêtes », 2021  (ISBN 9791036317163)
+L'Histoire pas bête, textes de Jean-Michel Billioud, Bayard Jeunesse, coll. « Questions pas bêtes », 2022  (ISBN 9791036329081)
+L'Irrésistible Perlimpinpin, textes de Andréa Nève L'École des loisirs, Pastel, 2023  (ISBN 9782211318624)
+Paupières de sel, textes de Muriel Logist, illustré par Pascal Lemaître, La pierre d’alun, coll. « La petite pierre » », 2023, 64 p.,  (ISBN 9782874291265),préface de Claude Louis-Combet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>À ton avis...
 1 Le Lion ou la souris, Casterman, coll. « Mini BD », Bruxelles, avril 2004Scénario : Toni Morrison, Slade Morrison - Dessin et couleurs : Pascal Lemaître -  (ISBN 978-2-203-11250-6)
 2 La Cigale ou la fourmi, Casterman, coll. « Mini BD », Bruxelles, avril 2004Scénario : Toni Morrison, Slade Morrison - Dessin et couleurs : Pascal Lemaître -  (ISBN 978-2-203-11251-3),Réédition L’École des loisirs, coll. « Mille bulles », 2011  (ISBN 9782211203241).
 Le Vieil Homme ou le serpent ?
-3 Le Vieil Homme ou le serpent ?, Casterman, coll. « Mini BD », Bruxelles, 30 mai 2004Scénario : Toni Morrison, Slade Morrison - Dessin et couleurs : Pascal Lemaître -  (ISBN 978-2-203-11252-0),Réédition L’École des loisirs, coll. « Mille bulles », 2011  (ISBN 978-2-211-20215-2).
-Revues
-Dlire[21] (Bayard Presse, coll. « 9/13 ans »)
+3 Le Vieil Homme ou le serpent ?, Casterman, coll. « Mini BD », Bruxelles, 30 mai 2004Scénario : Toni Morrison, Slade Morrison - Dessin et couleurs : Pascal Lemaître -  (ISBN 978-2-203-11252-0),Réédition L’École des loisirs, coll. « Mille bulles », 2011  (ISBN 978-2-211-20215-2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dlire (Bayard Presse, coll. « 9/13 ans »)
 2002 : publication dans le no 51
-J'aime lire[21] (Bayard Presse)
+J'aime lire (Bayard Presse)
 2003 : publication dans le no 321
 2008 : publication dans le no 373
-Mes premiers J'aime lire[21] (Bayard Jeunesse)
+Mes premiers J'aime lire (Bayard Jeunesse)
 2007 : publication dans le no 64
 2014 : publication dans les nos 145 et 146
 2017 : publication dans le no 174
-Moi je lis[21] (Milan Jeunesse, coll. « 8/12 ans »)
+Moi je lis (Milan Jeunesse, coll. « 8/12 ans »)
 2003 : publication dans les nos 189, 194
-2004 : publication dans les nos 195, 199 à 204.
-Écrits
-Pascal Lemaître, « Pascal Lemaître: «Il me semble que le travail de Philippe Geluck a fleuri dans les jardins de nos surréalistes belges» », Le Soir,‎ 5 mai 2021 (lire en ligne , consulté le 22 mars 2024).
-Expositions
-Expositions individuelles
-Tomi Ungerer invite Pascal Lemaître, Musée Tomi-Ungerer, Strasbourg, 2015[12].
-Sélection de dessins dans les carnets de Pascal Lemaître[22], Cycle Farm Fleurs, Linkebeek, du 5 juin au 21 juin 2020.
-Expositions collectives
-Galerie Triforium, Bibliothèque Solvay, Etterbeek avec Benoît van Innis du 11 février au 4 avril 2021[23],[24] ,[25].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pascal_Lema%C3%AEtre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2004 : publication dans les nos 195, 199 à 204.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pascal Lemaître, « Pascal Lemaître: «Il me semble que le travail de Philippe Geluck a fleuri dans les jardins de nos surréalistes belges» », Le Soir,‎ 5 mai 2021 (lire en ligne , consulté le 22 mars 2024).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Expositions individuelles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tomi Ungerer invite Pascal Lemaître, Musée Tomi-Ungerer, Strasbourg, 2015.
+Sélection de dessins dans les carnets de Pascal Lemaître, Cycle Farm Fleurs, Linkebeek, du 5 juin au 21 juin 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Galerie Triforium, Bibliothèque Solvay, Etterbeek avec Benoît van Innis du 11 février au 4 avril 2021, ,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pascal_Lemaître</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Lema%C3%AEtre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2015 :  prix Le goût des sciences Catégorie 2 : « la science expliquée aux jeunes » délivré par le Ministère de l'Enseignement supérieur pour Sciences pas bêtes pour les 7 à 107 ans partagé avec Bertrand Fichou et Marc Beynié[11],[26]. Ce prix récompense un produit littéraire visant à familiariser les 9-13 ans avec les questions scientifiques et à leur donner le goût des sciences[11].
-Trois de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[27] en 2024 : Le Roman de Renart (2007), Vleck (2012) et Le Diable de monsieur Wai (2018).
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2015 :  prix Le goût des sciences Catégorie 2 : « la science expliquée aux jeunes » délivré par le Ministère de l'Enseignement supérieur pour Sciences pas bêtes pour les 7 à 107 ans partagé avec Bertrand Fichou et Marc Beynié,. Ce prix récompense un produit littéraire visant à familiariser les 9-13 ans avec les questions scientifiques et à leur donner le goût des sciences.
+Trois de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024 : Le Roman de Renart (2007), Vleck (2012) et Le Diable de monsieur Wai (2018).
 </t>
         </is>
       </c>
